--- a/Code/Results/Cases/Case_5_74/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_74/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.89731810386825</v>
+        <v>18.56798742104897</v>
       </c>
       <c r="C2">
-        <v>7.184015118997059</v>
+        <v>5.5624014371473</v>
       </c>
       <c r="D2">
-        <v>6.15766663047545</v>
+        <v>8.904495809317133</v>
       </c>
       <c r="E2">
-        <v>6.388378356141273</v>
+        <v>10.67598311675275</v>
       </c>
       <c r="F2">
-        <v>36.06672028914646</v>
+        <v>43.5211027480406</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.19230697756542</v>
+        <v>14.91549994552507</v>
       </c>
       <c r="L2">
-        <v>6.227155121602761</v>
+        <v>10.11849393003563</v>
       </c>
       <c r="M2">
-        <v>11.56630980331353</v>
+        <v>16.99277315757973</v>
       </c>
       <c r="N2">
-        <v>17.55616010564706</v>
+        <v>24.89438636514307</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.0027465252809</v>
+        <v>18.42006533862364</v>
       </c>
       <c r="C3">
-        <v>6.794691123306553</v>
+        <v>5.399777418781572</v>
       </c>
       <c r="D3">
-        <v>6.221252091717097</v>
+        <v>8.913683858099295</v>
       </c>
       <c r="E3">
-        <v>6.395490615835477</v>
+        <v>10.69221696583141</v>
       </c>
       <c r="F3">
-        <v>35.09712913093625</v>
+        <v>43.39044630862689</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.50424566830944</v>
+        <v>14.81024531050813</v>
       </c>
       <c r="L3">
-        <v>6.157665066591908</v>
+        <v>10.12974653347591</v>
       </c>
       <c r="M3">
-        <v>11.24801748439512</v>
+        <v>16.98428539354111</v>
       </c>
       <c r="N3">
-        <v>17.63462267554031</v>
+        <v>24.9228411022896</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.44017365082246</v>
+        <v>18.3336389451732</v>
       </c>
       <c r="C4">
-        <v>6.545719577681392</v>
+        <v>5.296116411646329</v>
       </c>
       <c r="D4">
-        <v>6.260375151180461</v>
+        <v>8.919464365204654</v>
       </c>
       <c r="E4">
-        <v>6.401813975410936</v>
+        <v>10.70309845947532</v>
       </c>
       <c r="F4">
-        <v>34.51403071606304</v>
+        <v>43.31839245167113</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.0721469594082</v>
+        <v>14.74919779977409</v>
       </c>
       <c r="L4">
-        <v>6.11781234704478</v>
+        <v>10.13806042733651</v>
       </c>
       <c r="M4">
-        <v>11.05559826058782</v>
+        <v>16.98224569073491</v>
       </c>
       <c r="N4">
-        <v>17.68792619544288</v>
+        <v>24.94212439181826</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.20783911530783</v>
+        <v>18.29956018811472</v>
       </c>
       <c r="C5">
-        <v>6.441780403274673</v>
+        <v>5.25294532627352</v>
       </c>
       <c r="D5">
-        <v>6.276355881240541</v>
+        <v>8.921855124916888</v>
       </c>
       <c r="E5">
-        <v>6.404873068539413</v>
+        <v>10.70776292067688</v>
       </c>
       <c r="F5">
-        <v>34.27964399392207</v>
+        <v>43.29109947485035</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.89384864515145</v>
+        <v>14.72524368886243</v>
       </c>
       <c r="L5">
-        <v>6.102274231715481</v>
+        <v>10.14180184388382</v>
       </c>
       <c r="M5">
-        <v>10.97802294901469</v>
+        <v>16.98221387853328</v>
       </c>
       <c r="N5">
-        <v>17.71089494600567</v>
+        <v>24.95043806957895</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.16908278138361</v>
+        <v>18.29397130232191</v>
       </c>
       <c r="C6">
-        <v>6.424372174172423</v>
+        <v>5.245721643515979</v>
       </c>
       <c r="D6">
-        <v>6.279012233959646</v>
+        <v>8.922254237969245</v>
       </c>
       <c r="E6">
-        <v>6.405409880917288</v>
+        <v>10.70855136309512</v>
       </c>
       <c r="F6">
-        <v>34.24092397247806</v>
+        <v>43.28669289571207</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.86411541619908</v>
+        <v>14.72132253397171</v>
       </c>
       <c r="L6">
-        <v>6.099736372911915</v>
+        <v>10.14244445485612</v>
       </c>
       <c r="M6">
-        <v>10.96519456027245</v>
+        <v>16.98225692148549</v>
       </c>
       <c r="N6">
-        <v>17.71478304077697</v>
+        <v>24.95184606373734</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.43705239534913</v>
+        <v>18.33317468432157</v>
       </c>
       <c r="C7">
-        <v>6.544327836455832</v>
+        <v>5.295537909298368</v>
       </c>
       <c r="D7">
-        <v>6.260590497955006</v>
+        <v>8.91949646523171</v>
       </c>
       <c r="E7">
-        <v>6.401853291209257</v>
+        <v>10.70316043360817</v>
       </c>
       <c r="F7">
-        <v>34.51085640669231</v>
+        <v>43.31801597110373</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.06975103036375</v>
+        <v>14.74887097868088</v>
       </c>
       <c r="L7">
-        <v>6.117599959307367</v>
+        <v>10.13810945410836</v>
       </c>
       <c r="M7">
-        <v>11.05454855642111</v>
+        <v>16.98224202297648</v>
       </c>
       <c r="N7">
-        <v>17.68823096382715</v>
+        <v>24.94223466848531</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.59177229290737</v>
+        <v>18.51609248382137</v>
       </c>
       <c r="C8">
-        <v>7.051841211592526</v>
+        <v>5.507136106534033</v>
       </c>
       <c r="D8">
-        <v>6.179584832265352</v>
+        <v>8.907635120371008</v>
       </c>
       <c r="E8">
-        <v>6.390418660176158</v>
+        <v>10.68139110247533</v>
       </c>
       <c r="F8">
-        <v>35.72995613383603</v>
+        <v>43.47436652508994</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.95717236972712</v>
+        <v>14.878479700876</v>
       </c>
       <c r="L8">
-        <v>6.202607680004438</v>
+        <v>10.12208240659654</v>
       </c>
       <c r="M8">
-        <v>11.45598354983825</v>
+        <v>16.98918946595225</v>
       </c>
       <c r="N8">
-        <v>17.58212349876699</v>
+        <v>24.90382145390389</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.74174476252809</v>
+        <v>18.90806732960904</v>
       </c>
       <c r="C9">
-        <v>7.968294999840218</v>
+        <v>5.890700165091443</v>
       </c>
       <c r="D9">
-        <v>6.020526639420097</v>
+        <v>8.885468287320791</v>
       </c>
       <c r="E9">
-        <v>6.383976920781406</v>
+        <v>10.64593616881411</v>
       </c>
       <c r="F9">
-        <v>38.21153288594773</v>
+        <v>43.84503576073716</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.61403988339907</v>
+        <v>15.15994497189854</v>
       </c>
       <c r="L9">
-        <v>6.391869681541523</v>
+        <v>10.10178950066171</v>
       </c>
       <c r="M9">
-        <v>12.26388386780717</v>
+        <v>17.02788550263548</v>
       </c>
       <c r="N9">
-        <v>17.41679849034489</v>
+        <v>24.84287339385068</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.2431887657755</v>
+        <v>19.21403278915723</v>
       </c>
       <c r="C10">
-        <v>8.594368903073294</v>
+        <v>6.152014953496765</v>
       </c>
       <c r="D10">
-        <v>5.902238171272931</v>
+        <v>8.869834362736178</v>
       </c>
       <c r="E10">
-        <v>6.38965995977032</v>
+        <v>10.62427594959175</v>
       </c>
       <c r="F10">
-        <v>40.08343635114897</v>
+        <v>44.15528379456631</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.99999682196179</v>
+        <v>15.38181409263101</v>
       </c>
       <c r="L10">
-        <v>6.545000892770996</v>
+        <v>10.09365403966963</v>
       </c>
       <c r="M10">
-        <v>12.86629004350492</v>
+        <v>17.07145004900973</v>
       </c>
       <c r="N10">
-        <v>17.32455496871396</v>
+        <v>24.80686640754907</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.90840114580431</v>
+        <v>19.3566091070741</v>
       </c>
       <c r="C11">
-        <v>8.869306134257437</v>
+        <v>6.266205960724743</v>
       </c>
       <c r="D11">
-        <v>5.847791011140573</v>
+        <v>8.862860524544434</v>
       </c>
       <c r="E11">
-        <v>6.394666392949952</v>
+        <v>10.6153704080987</v>
       </c>
       <c r="F11">
-        <v>40.94470397870382</v>
+        <v>44.30437325575988</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.6158111881588</v>
+        <v>15.48566327898226</v>
       </c>
       <c r="L11">
-        <v>6.617800174188146</v>
+        <v>10.0914195379164</v>
       </c>
       <c r="M11">
-        <v>13.14165400632442</v>
+        <v>17.09451428978783</v>
       </c>
       <c r="N11">
-        <v>17.2897251289206</v>
+        <v>24.7923916567446</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.15771929392855</v>
+        <v>19.41104158599904</v>
       </c>
       <c r="C12">
-        <v>8.972042474562103</v>
+        <v>6.308756699414012</v>
       </c>
       <c r="D12">
-        <v>5.827051489108116</v>
+        <v>8.860239344278325</v>
       </c>
       <c r="E12">
-        <v>6.396924643320177</v>
+        <v>10.6121340236686</v>
       </c>
       <c r="F12">
-        <v>41.2722121842898</v>
+        <v>44.36194650220705</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.84515269721791</v>
+        <v>15.52537665974701</v>
       </c>
       <c r="L12">
-        <v>6.645826182720463</v>
+        <v>10.09078376085401</v>
       </c>
       <c r="M12">
-        <v>13.24608215222544</v>
+        <v>17.10371074812149</v>
       </c>
       <c r="N12">
-        <v>17.277635648923</v>
+        <v>24.78718446527027</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.10413904481384</v>
+        <v>19.39929965718623</v>
       </c>
       <c r="C13">
-        <v>8.949976799774598</v>
+        <v>6.299623623678801</v>
       </c>
       <c r="D13">
-        <v>5.831524033764696</v>
+        <v>8.860802991098321</v>
       </c>
       <c r="E13">
-        <v>6.396421931277399</v>
+        <v>10.61282499598238</v>
       </c>
       <c r="F13">
-        <v>41.20161683785734</v>
+        <v>44.34949788648812</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.79592923148332</v>
+        <v>15.51680693345432</v>
       </c>
       <c r="L13">
-        <v>6.639769757674576</v>
+        <v>10.09091133844325</v>
       </c>
       <c r="M13">
-        <v>13.22358529069544</v>
+        <v>17.10170962835001</v>
       </c>
       <c r="N13">
-        <v>17.28018915615678</v>
+        <v>24.7882937349869</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.92896447670441</v>
+        <v>19.36107870704398</v>
       </c>
       <c r="C14">
-        <v>8.877785621726966</v>
+        <v>6.269720576118456</v>
       </c>
       <c r="D14">
-        <v>5.846087377336461</v>
+        <v>8.862644485577276</v>
       </c>
       <c r="E14">
-        <v>6.394844831577809</v>
+        <v>10.61510142611234</v>
       </c>
       <c r="F14">
-        <v>40.97162097305196</v>
+        <v>44.30908763436953</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.63475574866626</v>
+        <v>15.48892293275063</v>
       </c>
       <c r="L14">
-        <v>6.620096655259608</v>
+        <v>10.0913630188037</v>
       </c>
       <c r="M14">
-        <v>13.15024245551817</v>
+        <v>17.09526164438142</v>
       </c>
       <c r="N14">
-        <v>17.28870802571164</v>
+        <v>24.79195776414608</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.8213285047904</v>
+        <v>19.33772345572381</v>
       </c>
       <c r="C15">
-        <v>8.83338861968657</v>
+        <v>6.251313631087522</v>
       </c>
       <c r="D15">
-        <v>5.854991071917442</v>
+        <v>8.863775008619848</v>
       </c>
       <c r="E15">
-        <v>6.393926452019978</v>
+        <v>10.61651349992701</v>
       </c>
       <c r="F15">
-        <v>40.83091928582845</v>
+        <v>44.2844797092956</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.53553426716849</v>
+        <v>15.47189274115117</v>
       </c>
       <c r="L15">
-        <v>6.608106260486733</v>
+        <v>10.09166706841935</v>
       </c>
       <c r="M15">
-        <v>13.10533700572039</v>
+        <v>17.09137216781322</v>
       </c>
       <c r="N15">
-        <v>17.29407164128175</v>
+        <v>24.79423778560092</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.19935449708826</v>
+        <v>19.2047794359331</v>
       </c>
       <c r="C16">
-        <v>8.576205960890498</v>
+        <v>6.144456529471659</v>
       </c>
       <c r="D16">
-        <v>5.905781111222382</v>
+        <v>8.870292881590077</v>
       </c>
       <c r="E16">
-        <v>6.38938269315407</v>
+        <v>10.62487699069295</v>
       </c>
       <c r="F16">
-        <v>40.02734243076138</v>
+        <v>44.14569821113681</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.95920564370774</v>
+        <v>15.37508334511029</v>
       </c>
       <c r="L16">
-        <v>6.540307027484782</v>
+        <v>10.09382953692733</v>
       </c>
       <c r="M16">
-        <v>12.84831759920387</v>
+        <v>17.07000771589241</v>
       </c>
       <c r="N16">
-        <v>17.32698087354945</v>
+        <v>24.80785071271188</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.81320552291545</v>
+        <v>19.1240588165282</v>
       </c>
       <c r="C17">
-        <v>8.415932625185736</v>
+        <v>6.077690702880173</v>
       </c>
       <c r="D17">
-        <v>5.936755626083006</v>
+        <v>8.874326617571558</v>
       </c>
       <c r="E17">
-        <v>6.387225189211514</v>
+        <v>10.63025023355324</v>
       </c>
       <c r="F17">
-        <v>39.53682919845735</v>
+        <v>44.06257881185354</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.59864719776042</v>
+        <v>15.31641926179651</v>
       </c>
       <c r="L17">
-        <v>6.499522983446927</v>
+        <v>10.09553138990165</v>
       </c>
       <c r="M17">
-        <v>12.69095391593897</v>
+        <v>17.05772989457792</v>
       </c>
       <c r="N17">
-        <v>17.34904683489184</v>
+        <v>24.81668982590658</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.58942620742626</v>
+        <v>19.07795242391676</v>
       </c>
       <c r="C18">
-        <v>8.322815766008585</v>
+        <v>6.038848950275729</v>
       </c>
       <c r="D18">
-        <v>5.954513344757171</v>
+        <v>8.876659727571516</v>
       </c>
       <c r="E18">
-        <v>6.386211231778129</v>
+        <v>10.63343001284723</v>
       </c>
       <c r="F18">
-        <v>39.25561447827256</v>
+        <v>44.01552137454548</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.38865227618402</v>
+        <v>15.28295401885324</v>
       </c>
       <c r="L18">
-        <v>6.476360049779259</v>
+        <v>10.09664830434403</v>
       </c>
       <c r="M18">
-        <v>12.60056877876357</v>
+        <v>17.05097387928074</v>
       </c>
       <c r="N18">
-        <v>17.36240503894877</v>
+        <v>24.82195315023647</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.51337173626422</v>
+        <v>19.06239827272178</v>
       </c>
       <c r="C19">
-        <v>8.291126816045512</v>
+        <v>6.025622831771217</v>
       </c>
       <c r="D19">
-        <v>5.960516703463125</v>
+        <v>8.877451919377515</v>
       </c>
       <c r="E19">
-        <v>6.385906489963691</v>
+        <v>10.63452196754773</v>
       </c>
       <c r="F19">
-        <v>39.16055893570113</v>
+        <v>43.99971827508005</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.31709954266531</v>
+        <v>15.2716717621364</v>
       </c>
       <c r="L19">
-        <v>6.468567947953109</v>
+        <v>10.09705019679844</v>
       </c>
       <c r="M19">
-        <v>12.56998894987882</v>
+        <v>17.04873906510531</v>
       </c>
       <c r="N19">
-        <v>17.36704021931315</v>
+        <v>24.82376601184054</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.85448555369646</v>
+        <v>19.13261867052931</v>
       </c>
       <c r="C20">
-        <v>8.433090165123479</v>
+        <v>6.084843692201631</v>
       </c>
       <c r="D20">
-        <v>5.933464546219447</v>
+        <v>8.87389587429546</v>
       </c>
       <c r="E20">
-        <v>6.387431267492816</v>
+        <v>10.62966900996399</v>
       </c>
       <c r="F20">
-        <v>39.58895079205655</v>
+        <v>44.07134952088413</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.63729865544881</v>
+        <v>15.32263573644945</v>
       </c>
       <c r="L20">
-        <v>6.503833939838788</v>
+        <v>10.0953359400163</v>
       </c>
       <c r="M20">
-        <v>12.70769278667228</v>
+        <v>17.05900526390976</v>
       </c>
       <c r="N20">
-        <v>17.34662838706816</v>
+        <v>24.81573032936401</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.98048760823411</v>
+        <v>19.37229350019715</v>
       </c>
       <c r="C21">
-        <v>8.899026888565437</v>
+        <v>6.278522707415924</v>
       </c>
       <c r="D21">
-        <v>5.84181332393947</v>
+        <v>8.862103062009147</v>
       </c>
       <c r="E21">
-        <v>6.395298108973102</v>
+        <v>10.61442909647135</v>
       </c>
       <c r="F21">
-        <v>41.03913936229077</v>
+        <v>44.32092703889838</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.68219986945456</v>
+        <v>15.49710286840505</v>
       </c>
       <c r="L21">
-        <v>6.62586261405785</v>
+        <v>10.09122464382411</v>
       </c>
       <c r="M21">
-        <v>13.17178107961872</v>
+        <v>17.09714305713102</v>
       </c>
       <c r="N21">
-        <v>17.28617534891793</v>
+        <v>24.79087411032331</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.70135233692583</v>
+        <v>19.53148915514727</v>
       </c>
       <c r="C22">
-        <v>9.195547507459976</v>
+        <v>6.401069196810713</v>
       </c>
       <c r="D22">
-        <v>5.781189125589218</v>
+        <v>8.854510283510553</v>
       </c>
       <c r="E22">
-        <v>6.402559438705327</v>
+        <v>10.60526119724492</v>
       </c>
       <c r="F22">
-        <v>41.99489108078219</v>
+        <v>44.49053293958847</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.34270419533777</v>
+        <v>15.61337326886032</v>
       </c>
       <c r="L22">
-        <v>6.708292481389784</v>
+        <v>10.08976366244033</v>
       </c>
       <c r="M22">
-        <v>13.47597844750102</v>
+        <v>17.12476199022953</v>
       </c>
       <c r="N22">
-        <v>17.25311649294864</v>
+        <v>24.77622675897767</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.31798790456804</v>
+        <v>19.44630496032119</v>
       </c>
       <c r="C23">
-        <v>9.038003868845507</v>
+        <v>6.336038225319316</v>
       </c>
       <c r="D23">
-        <v>5.813622464937842</v>
+        <v>8.858552280988816</v>
       </c>
       <c r="E23">
-        <v>6.39848496161457</v>
+        <v>10.61008189885095</v>
       </c>
       <c r="F23">
-        <v>41.48405963168172</v>
+        <v>44.3994266338031</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.99218654175468</v>
+        <v>15.55112275419732</v>
       </c>
       <c r="L23">
-        <v>6.664050359237371</v>
+        <v>10.09043141321245</v>
       </c>
       <c r="M23">
-        <v>13.3135500025841</v>
+        <v>17.10977630994201</v>
       </c>
       <c r="N23">
-        <v>17.27014383441291</v>
+        <v>24.78389809742718</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.83582838491451</v>
+        <v>19.12874781959426</v>
       </c>
       <c r="C24">
-        <v>8.425336276896491</v>
+        <v>6.081611248456417</v>
       </c>
       <c r="D24">
-        <v>5.934952596763377</v>
+        <v>8.874090569502698</v>
       </c>
       <c r="E24">
-        <v>6.387337395317594</v>
+        <v>10.6299314988287</v>
       </c>
       <c r="F24">
-        <v>39.56538416239788</v>
+        <v>44.06738201040583</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.61983276628292</v>
+        <v>15.31982445123871</v>
       </c>
       <c r="L24">
-        <v>6.501884071258702</v>
+        <v>10.09542387147957</v>
       </c>
       <c r="M24">
-        <v>12.70012487442315</v>
+        <v>17.05842772634191</v>
       </c>
       <c r="N24">
-        <v>17.3477196791325</v>
+        <v>24.81616355206206</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.1734101841788</v>
+        <v>18.79869717418556</v>
       </c>
       <c r="C25">
-        <v>7.728761633288649</v>
+        <v>5.790445355787173</v>
       </c>
       <c r="D25">
-        <v>6.063705403412204</v>
+        <v>8.89134945460375</v>
       </c>
       <c r="E25">
-        <v>6.383941559651282</v>
+        <v>10.65475540528343</v>
       </c>
       <c r="F25">
-        <v>37.53124590917965</v>
+        <v>43.73801068768994</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.17555759097781</v>
+        <v>15.08103502444431</v>
       </c>
       <c r="L25">
-        <v>6.338220418598328</v>
+        <v>10.10608839980892</v>
       </c>
       <c r="M25">
-        <v>12.04353118684482</v>
+        <v>17.01474682229505</v>
       </c>
       <c r="N25">
-        <v>17.45663878960268</v>
+        <v>24.85782142415323</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_74/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_74/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.56798742104897</v>
+        <v>16.89731810386824</v>
       </c>
       <c r="C2">
-        <v>5.5624014371473</v>
+        <v>7.184015118997371</v>
       </c>
       <c r="D2">
-        <v>8.904495809317133</v>
+        <v>6.157666630475518</v>
       </c>
       <c r="E2">
-        <v>10.67598311675275</v>
+        <v>6.388378356141333</v>
       </c>
       <c r="F2">
-        <v>43.5211027480406</v>
+        <v>36.06672028914637</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.91549994552507</v>
+        <v>13.19230697756541</v>
       </c>
       <c r="L2">
-        <v>10.11849393003563</v>
+        <v>6.227155121602714</v>
       </c>
       <c r="M2">
-        <v>16.99277315757973</v>
+        <v>11.56630980331351</v>
       </c>
       <c r="N2">
-        <v>24.89438636514307</v>
+        <v>17.556160105647</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.42006533862364</v>
+        <v>16.00274652528092</v>
       </c>
       <c r="C3">
-        <v>5.399777418781572</v>
+        <v>6.794691123306746</v>
       </c>
       <c r="D3">
-        <v>8.913683858099295</v>
+        <v>6.221252091717229</v>
       </c>
       <c r="E3">
-        <v>10.69221696583141</v>
+        <v>6.395490615835533</v>
       </c>
       <c r="F3">
-        <v>43.39044630862689</v>
+        <v>35.09712913093619</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.81024531050813</v>
+        <v>12.50424566830942</v>
       </c>
       <c r="L3">
-        <v>10.12974653347591</v>
+        <v>6.157665066591821</v>
       </c>
       <c r="M3">
-        <v>16.98428539354111</v>
+        <v>11.24801748439512</v>
       </c>
       <c r="N3">
-        <v>24.9228411022896</v>
+        <v>17.63462267554034</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.3336389451732</v>
+        <v>15.44017365082258</v>
       </c>
       <c r="C4">
-        <v>5.296116411646329</v>
+        <v>6.54571957768129</v>
       </c>
       <c r="D4">
-        <v>8.919464365204654</v>
+        <v>6.260375151180392</v>
       </c>
       <c r="E4">
-        <v>10.70309845947532</v>
+        <v>6.401813975410938</v>
       </c>
       <c r="F4">
-        <v>43.31839245167113</v>
+        <v>34.51403071606354</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.74919779977409</v>
+        <v>12.07214695940828</v>
       </c>
       <c r="L4">
-        <v>10.13806042733651</v>
+        <v>6.117812347044758</v>
       </c>
       <c r="M4">
-        <v>16.98224569073491</v>
+        <v>11.05559826058795</v>
       </c>
       <c r="N4">
-        <v>24.94212439181826</v>
+        <v>17.68792619544314</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.29956018811472</v>
+        <v>15.20783911530785</v>
       </c>
       <c r="C5">
-        <v>5.25294532627352</v>
+        <v>6.441780403274704</v>
       </c>
       <c r="D5">
-        <v>8.921855124916888</v>
+        <v>6.276355881240807</v>
       </c>
       <c r="E5">
-        <v>10.70776292067688</v>
+        <v>6.404873068539405</v>
       </c>
       <c r="F5">
-        <v>43.29109947485035</v>
+        <v>34.27964399392216</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.72524368886243</v>
+        <v>11.89384864515146</v>
       </c>
       <c r="L5">
-        <v>10.14180184388382</v>
+        <v>6.102274231715485</v>
       </c>
       <c r="M5">
-        <v>16.98221387853328</v>
+        <v>10.9780229490147</v>
       </c>
       <c r="N5">
-        <v>24.95043806957895</v>
+        <v>17.71089494600576</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.29397130232191</v>
+        <v>15.1690827813835</v>
       </c>
       <c r="C6">
-        <v>5.245721643515979</v>
+        <v>6.424372174172219</v>
       </c>
       <c r="D6">
-        <v>8.922254237969245</v>
+        <v>6.279012233959648</v>
       </c>
       <c r="E6">
-        <v>10.70855136309512</v>
+        <v>6.405409880917349</v>
       </c>
       <c r="F6">
-        <v>43.28669289571207</v>
+        <v>34.24092397247787</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.72132253397171</v>
+        <v>11.86411541619905</v>
       </c>
       <c r="L6">
-        <v>10.14244445485612</v>
+        <v>6.099736372912011</v>
       </c>
       <c r="M6">
-        <v>16.98225692148549</v>
+        <v>10.9651945602724</v>
       </c>
       <c r="N6">
-        <v>24.95184606373734</v>
+        <v>17.71478304077689</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.33317468432157</v>
+        <v>15.43705239534915</v>
       </c>
       <c r="C7">
-        <v>5.295537909298368</v>
+        <v>6.544327836455628</v>
       </c>
       <c r="D7">
-        <v>8.91949646523171</v>
+        <v>6.260590497955272</v>
       </c>
       <c r="E7">
-        <v>10.70316043360817</v>
+        <v>6.401853291209203</v>
       </c>
       <c r="F7">
-        <v>43.31801597110373</v>
+        <v>34.51085640669248</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.74887097868088</v>
+        <v>12.0697510303638</v>
       </c>
       <c r="L7">
-        <v>10.13810945410836</v>
+        <v>6.117599959307372</v>
       </c>
       <c r="M7">
-        <v>16.98224202297648</v>
+        <v>11.05454855642113</v>
       </c>
       <c r="N7">
-        <v>24.94223466848531</v>
+        <v>17.6882309638273</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.51609248382137</v>
+        <v>16.59177229290739</v>
       </c>
       <c r="C8">
-        <v>5.507136106534033</v>
+        <v>7.05184121159242</v>
       </c>
       <c r="D8">
-        <v>8.907635120371008</v>
+        <v>6.179584832265153</v>
       </c>
       <c r="E8">
-        <v>10.68139110247533</v>
+        <v>6.390418660176101</v>
       </c>
       <c r="F8">
-        <v>43.47436652508994</v>
+        <v>35.72995613383622</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.878479700876</v>
+        <v>12.95717236972714</v>
       </c>
       <c r="L8">
-        <v>10.12208240659654</v>
+        <v>6.202607680004391</v>
       </c>
       <c r="M8">
-        <v>16.98918946595225</v>
+        <v>11.45598354983827</v>
       </c>
       <c r="N8">
-        <v>24.90382145390389</v>
+        <v>17.58212349876706</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.90806732960904</v>
+        <v>18.74174476252806</v>
       </c>
       <c r="C9">
-        <v>5.890700165091443</v>
+        <v>7.968294999840325</v>
       </c>
       <c r="D9">
-        <v>8.885468287320791</v>
+        <v>6.020526639420028</v>
       </c>
       <c r="E9">
-        <v>10.64593616881411</v>
+        <v>6.383976920781399</v>
       </c>
       <c r="F9">
-        <v>43.84503576073716</v>
+        <v>38.21153288594773</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.15994497189854</v>
+        <v>14.61403988339908</v>
       </c>
       <c r="L9">
-        <v>10.10178950066171</v>
+        <v>6.391869681541511</v>
       </c>
       <c r="M9">
-        <v>17.02788550263548</v>
+        <v>12.26388386780717</v>
       </c>
       <c r="N9">
-        <v>24.84287339385068</v>
+        <v>17.41679849034491</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.21403278915723</v>
+        <v>20.24318876577553</v>
       </c>
       <c r="C10">
-        <v>6.152014953496765</v>
+        <v>8.594368903073475</v>
       </c>
       <c r="D10">
-        <v>8.869834362736178</v>
+        <v>5.902238171273119</v>
       </c>
       <c r="E10">
-        <v>10.62427594959175</v>
+        <v>6.389659959770204</v>
       </c>
       <c r="F10">
-        <v>44.15528379456631</v>
+        <v>40.08343635114915</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.38181409263101</v>
+        <v>15.99999682196175</v>
       </c>
       <c r="L10">
-        <v>10.09365403966963</v>
+        <v>6.545000892770951</v>
       </c>
       <c r="M10">
-        <v>17.07145004900973</v>
+        <v>12.86629004350494</v>
       </c>
       <c r="N10">
-        <v>24.80686640754907</v>
+        <v>17.3245549687141</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.3566091070741</v>
+        <v>20.90840114580429</v>
       </c>
       <c r="C11">
-        <v>6.266205960724743</v>
+        <v>8.869306134257142</v>
       </c>
       <c r="D11">
-        <v>8.862860524544434</v>
+        <v>5.847791011140768</v>
       </c>
       <c r="E11">
-        <v>10.6153704080987</v>
+        <v>6.394666392949905</v>
       </c>
       <c r="F11">
-        <v>44.30437325575988</v>
+        <v>40.9447039787038</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.48566327898226</v>
+        <v>16.61581118815877</v>
       </c>
       <c r="L11">
-        <v>10.0914195379164</v>
+        <v>6.617800174188187</v>
       </c>
       <c r="M11">
-        <v>17.09451428978783</v>
+        <v>13.14165400632442</v>
       </c>
       <c r="N11">
-        <v>24.7923916567446</v>
+        <v>17.28972512892059</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.41104158599904</v>
+        <v>21.15771929392855</v>
       </c>
       <c r="C12">
-        <v>6.308756699414012</v>
+        <v>8.972042474562294</v>
       </c>
       <c r="D12">
-        <v>8.860239344278325</v>
+        <v>5.827051489108051</v>
       </c>
       <c r="E12">
-        <v>10.6121340236686</v>
+        <v>6.396924643320009</v>
       </c>
       <c r="F12">
-        <v>44.36194650220705</v>
+        <v>41.2722121842896</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.52537665974701</v>
+        <v>16.845152697218</v>
       </c>
       <c r="L12">
-        <v>10.09078376085401</v>
+        <v>6.645826182720429</v>
       </c>
       <c r="M12">
-        <v>17.10371074812149</v>
+        <v>13.24608215222536</v>
       </c>
       <c r="N12">
-        <v>24.78718446527027</v>
+        <v>17.27763564892284</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.39929965718623</v>
+        <v>21.10413904481387</v>
       </c>
       <c r="C13">
-        <v>6.299623623678801</v>
+        <v>8.949976799775065</v>
       </c>
       <c r="D13">
-        <v>8.860802991098321</v>
+        <v>5.831524033764508</v>
       </c>
       <c r="E13">
-        <v>10.61282499598238</v>
+        <v>6.396421931277567</v>
       </c>
       <c r="F13">
-        <v>44.34949788648812</v>
+        <v>41.20161683785726</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.51680693345432</v>
+        <v>16.79592923148343</v>
       </c>
       <c r="L13">
-        <v>10.09091133844325</v>
+        <v>6.639769757674559</v>
       </c>
       <c r="M13">
-        <v>17.10170962835001</v>
+        <v>13.22358529069542</v>
       </c>
       <c r="N13">
-        <v>24.7882937349869</v>
+        <v>17.28018915615671</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.36107870704398</v>
+        <v>20.92896447670442</v>
       </c>
       <c r="C14">
-        <v>6.269720576118456</v>
+        <v>8.87778562172698</v>
       </c>
       <c r="D14">
-        <v>8.862644485577276</v>
+        <v>5.846087377336329</v>
       </c>
       <c r="E14">
-        <v>10.61510142611234</v>
+        <v>6.394844831577702</v>
       </c>
       <c r="F14">
-        <v>44.30908763436953</v>
+        <v>40.97162097305198</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.48892293275063</v>
+        <v>16.63475574866629</v>
       </c>
       <c r="L14">
-        <v>10.0913630188037</v>
+        <v>6.620096655259565</v>
       </c>
       <c r="M14">
-        <v>17.09526164438142</v>
+        <v>13.15024245551815</v>
       </c>
       <c r="N14">
-        <v>24.79195776414608</v>
+        <v>17.28870802571161</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.33772345572381</v>
+        <v>20.82132850479041</v>
       </c>
       <c r="C15">
-        <v>6.251313631087522</v>
+        <v>8.833388619686572</v>
       </c>
       <c r="D15">
-        <v>8.863775008619848</v>
+        <v>5.8549910719177</v>
       </c>
       <c r="E15">
-        <v>10.61651349992701</v>
+        <v>6.393926452020028</v>
       </c>
       <c r="F15">
-        <v>44.2844797092956</v>
+        <v>40.83091928582846</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.47189274115117</v>
+        <v>16.53553426716845</v>
       </c>
       <c r="L15">
-        <v>10.09166706841935</v>
+        <v>6.608106260486811</v>
       </c>
       <c r="M15">
-        <v>17.09137216781322</v>
+        <v>13.10533700572043</v>
       </c>
       <c r="N15">
-        <v>24.79423778560092</v>
+        <v>17.29407164128179</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.2047794359331</v>
+        <v>20.19935449708826</v>
       </c>
       <c r="C16">
-        <v>6.144456529471659</v>
+        <v>8.576205960890498</v>
       </c>
       <c r="D16">
-        <v>8.870292881590077</v>
+        <v>5.905781111222253</v>
       </c>
       <c r="E16">
-        <v>10.62487699069295</v>
+        <v>6.389382693154013</v>
       </c>
       <c r="F16">
-        <v>44.14569821113681</v>
+        <v>40.02734243076137</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.37508334511029</v>
+        <v>15.95920564370775</v>
       </c>
       <c r="L16">
-        <v>10.09382953692733</v>
+        <v>6.540307027484761</v>
       </c>
       <c r="M16">
-        <v>17.07000771589241</v>
+        <v>12.84831759920385</v>
       </c>
       <c r="N16">
-        <v>24.80785071271188</v>
+        <v>17.32698087354946</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.1240588165282</v>
+        <v>19.81320552291541</v>
       </c>
       <c r="C17">
-        <v>6.077690702880173</v>
+        <v>8.41593262518537</v>
       </c>
       <c r="D17">
-        <v>8.874326617571558</v>
+        <v>5.936755626082937</v>
       </c>
       <c r="E17">
-        <v>10.63025023355324</v>
+        <v>6.387225189211447</v>
       </c>
       <c r="F17">
-        <v>44.06257881185354</v>
+        <v>39.5368291984575</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.31641926179651</v>
+        <v>15.59864719776033</v>
       </c>
       <c r="L17">
-        <v>10.09553138990165</v>
+        <v>6.499522983446989</v>
       </c>
       <c r="M17">
-        <v>17.05772989457792</v>
+        <v>12.69095391593899</v>
       </c>
       <c r="N17">
-        <v>24.81668982590658</v>
+        <v>17.34904683489196</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.07795242391676</v>
+        <v>19.58942620742627</v>
       </c>
       <c r="C18">
-        <v>6.038848950275729</v>
+        <v>8.322815766008587</v>
       </c>
       <c r="D18">
-        <v>8.876659727571516</v>
+        <v>5.954513344757177</v>
       </c>
       <c r="E18">
-        <v>10.63343001284723</v>
+        <v>6.38621123177808</v>
       </c>
       <c r="F18">
-        <v>44.01552137454548</v>
+        <v>39.25561447827241</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.28295401885324</v>
+        <v>15.38865227618409</v>
       </c>
       <c r="L18">
-        <v>10.09664830434403</v>
+        <v>6.476360049779249</v>
       </c>
       <c r="M18">
-        <v>17.05097387928074</v>
+        <v>12.60056877876353</v>
       </c>
       <c r="N18">
-        <v>24.82195315023647</v>
+        <v>17.36240503894865</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.06239827272178</v>
+        <v>19.51337173626421</v>
       </c>
       <c r="C19">
-        <v>6.025622831771217</v>
+        <v>8.291126816045512</v>
       </c>
       <c r="D19">
-        <v>8.877451919377515</v>
+        <v>5.960516703463124</v>
       </c>
       <c r="E19">
-        <v>10.63452196754773</v>
+        <v>6.385906489963797</v>
       </c>
       <c r="F19">
-        <v>43.99971827508005</v>
+        <v>39.16055893570105</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.2716717621364</v>
+        <v>15.31709954266533</v>
       </c>
       <c r="L19">
-        <v>10.09705019679844</v>
+        <v>6.468567947953141</v>
       </c>
       <c r="M19">
-        <v>17.04873906510531</v>
+        <v>12.56998894987882</v>
       </c>
       <c r="N19">
-        <v>24.82376601184054</v>
+        <v>17.3670402193131</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.13261867052931</v>
+        <v>19.85448555369644</v>
       </c>
       <c r="C20">
-        <v>6.084843692201631</v>
+        <v>8.433090165123193</v>
       </c>
       <c r="D20">
-        <v>8.87389587429546</v>
+        <v>5.93346454621971</v>
       </c>
       <c r="E20">
-        <v>10.62966900996399</v>
+        <v>6.387431267492824</v>
       </c>
       <c r="F20">
-        <v>44.07134952088413</v>
+        <v>39.5889507920565</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.32263573644945</v>
+        <v>15.6372986554488</v>
       </c>
       <c r="L20">
-        <v>10.0953359400163</v>
+        <v>6.503833939838893</v>
       </c>
       <c r="M20">
-        <v>17.05900526390976</v>
+        <v>12.70769278667229</v>
       </c>
       <c r="N20">
-        <v>24.81573032936401</v>
+        <v>17.34662838706814</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.37229350019715</v>
+        <v>20.98048760823409</v>
       </c>
       <c r="C21">
-        <v>6.278522707415924</v>
+        <v>8.899026888565528</v>
       </c>
       <c r="D21">
-        <v>8.862103062009147</v>
+        <v>5.841813323939408</v>
       </c>
       <c r="E21">
-        <v>10.61442909647135</v>
+        <v>6.395298108973052</v>
       </c>
       <c r="F21">
-        <v>44.32092703889838</v>
+        <v>41.03913936229079</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.49710286840505</v>
+        <v>16.68219986945455</v>
       </c>
       <c r="L21">
-        <v>10.09122464382411</v>
+        <v>6.625862614057747</v>
       </c>
       <c r="M21">
-        <v>17.09714305713102</v>
+        <v>13.17178107961871</v>
       </c>
       <c r="N21">
-        <v>24.79087411032331</v>
+        <v>17.28617534891795</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.53148915514727</v>
+        <v>21.70135233692585</v>
       </c>
       <c r="C22">
-        <v>6.401069196810713</v>
+        <v>9.195547507460159</v>
       </c>
       <c r="D22">
-        <v>8.854510283510553</v>
+        <v>5.781189125589097</v>
       </c>
       <c r="E22">
-        <v>10.60526119724492</v>
+        <v>6.40255943870538</v>
       </c>
       <c r="F22">
-        <v>44.49053293958847</v>
+        <v>41.99489108078214</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.61337326886032</v>
+        <v>17.34270419533781</v>
       </c>
       <c r="L22">
-        <v>10.08976366244033</v>
+        <v>6.708292481389753</v>
       </c>
       <c r="M22">
-        <v>17.12476199022953</v>
+        <v>13.475978447501</v>
       </c>
       <c r="N22">
-        <v>24.77622675897767</v>
+        <v>17.25311649294857</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.44630496032119</v>
+        <v>21.31798790456804</v>
       </c>
       <c r="C23">
-        <v>6.336038225319316</v>
+        <v>9.038003868845621</v>
       </c>
       <c r="D23">
-        <v>8.858552280988816</v>
+        <v>5.813622464937987</v>
       </c>
       <c r="E23">
-        <v>10.61008189885095</v>
+        <v>6.39848496161461</v>
       </c>
       <c r="F23">
-        <v>44.3994266338031</v>
+        <v>41.4840596316817</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.55112275419732</v>
+        <v>16.99218654175467</v>
       </c>
       <c r="L23">
-        <v>10.09043141321245</v>
+        <v>6.664050359237371</v>
       </c>
       <c r="M23">
-        <v>17.10977630994201</v>
+        <v>13.31355000258412</v>
       </c>
       <c r="N23">
-        <v>24.78389809742718</v>
+        <v>17.27014383441298</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.12874781959426</v>
+        <v>19.8358283849145</v>
       </c>
       <c r="C24">
-        <v>6.081611248456417</v>
+        <v>8.425336276896582</v>
       </c>
       <c r="D24">
-        <v>8.874090569502698</v>
+        <v>5.93495259676351</v>
       </c>
       <c r="E24">
-        <v>10.6299314988287</v>
+        <v>6.387337395317576</v>
       </c>
       <c r="F24">
-        <v>44.06738201040583</v>
+        <v>39.5653841623979</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.31982445123871</v>
+        <v>15.61983276628288</v>
       </c>
       <c r="L24">
-        <v>10.09542387147957</v>
+        <v>6.501884071258665</v>
       </c>
       <c r="M24">
-        <v>17.05842772634191</v>
+        <v>12.70012487442317</v>
       </c>
       <c r="N24">
-        <v>24.81616355206206</v>
+        <v>17.34771967913254</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.79869717418556</v>
+        <v>18.17341018417881</v>
       </c>
       <c r="C25">
-        <v>5.790445355787173</v>
+        <v>7.728761633288819</v>
       </c>
       <c r="D25">
-        <v>8.89134945460375</v>
+        <v>6.063705403412196</v>
       </c>
       <c r="E25">
-        <v>10.65475540528343</v>
+        <v>6.383941559651403</v>
       </c>
       <c r="F25">
-        <v>43.73801068768994</v>
+        <v>37.53124590917964</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.08103502444431</v>
+        <v>14.17555759097779</v>
       </c>
       <c r="L25">
-        <v>10.10608839980892</v>
+        <v>6.338220418598328</v>
       </c>
       <c r="M25">
-        <v>17.01474682229505</v>
+        <v>12.04353118684484</v>
       </c>
       <c r="N25">
-        <v>24.85782142415323</v>
+        <v>17.45663878960281</v>
       </c>
       <c r="O25">
         <v>0</v>
